--- a/Proyecto1/bin/Debug/Administrador.xlsx
+++ b/Proyecto1/bin/Debug/Administrador.xlsx
@@ -5,15 +5,15 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\source\repos\AngeloWong09\GimnacioProyecto\Proyecto1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69323B16-BB99-4B71-BE86-5E42E1EB39A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910B9B5-C2B9-414F-92E2-ECF65B08B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="11412" yWindow="2268" windowWidth="9036" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="124519"/>
@@ -59,7 +59,7 @@
     <x:t>Calvo</x:t>
   </x:si>
   <x:si>
-    <x:t>Patito00</x:t>
+    <x:t>0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -492,14 +492,14 @@
   <x:dimension ref="A1:H101"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C7" sqref="C7"/>
+      <x:selection activeCell="E6" sqref="E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultColWidth="8.853482" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="12.21875" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="10.554688" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.886719" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.554688" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="11.441406" style="0" bestFit="1" customWidth="1"/>
     <x:col min="6" max="7" width="16.332031" style="0" bestFit="1" customWidth="1"/>
